--- a/preguntas-resolucion-problemas.xlsx
+++ b/preguntas-resolucion-problemas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>text</t>
   </si>
@@ -40,9 +40,6 @@
     <t/>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Cuando enfrentas un problema complejo, ¿cuál es tu primer paso?</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
   </si>
   <si>
     <t>¿Qué tan creativo consideras que eres al buscar soluciones alternativas?</t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
   <si>
     <t>¿Cómo manejas la frustración cuando una solución no funciona?</t>
@@ -520,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -531,16 +525,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="3">
         <v>6</v>
@@ -551,7 +545,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -571,16 +565,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -591,7 +585,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
@@ -600,7 +594,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3">
         <v>5</v>
@@ -611,16 +605,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="E7" s="3">
         <v>6</v>
